--- a/Requirements and Planning/burndown_Bas-1.xlsx
+++ b/Requirements and Planning/burndown_Bas-1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365zadkine.sharepoint.com/teams/DocentenSoftwareDeveloper/Gedeelde documenten/General/Project 8 OOP en Database (Bas)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Project_Bas\Requirements and Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="8_{24BA3720-FEAD-47CB-B1D1-0E9E9F5006E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4287E5F-1329-4836-BAB0-000402A921DD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEC94D3-7E65-4D79-8C59-DC1684662513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
   <sheets>
     <sheet name="BurndownChart" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>Taak</t>
   </si>
@@ -1917,17 +1917,17 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="15"/>
       <c r="B1" s="16" t="s">
         <v>1</v>
@@ -1954,7 +1954,7 @@
         <v>45462</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>12</v>
       </c>
@@ -2000,7 +2000,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="22"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>33</v>
       </c>
@@ -2017,7 +2017,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="22"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>13</v>
       </c>
@@ -2034,7 +2034,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="22"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
@@ -2051,7 +2051,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>15</v>
       </c>
@@ -2059,16 +2059,14 @@
         <v>2</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="22"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>29</v>
       </c>
@@ -2076,16 +2074,14 @@
         <v>3</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>30</v>
       </c>
@@ -2093,16 +2089,14 @@
         <v>2</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="22"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>31</v>
       </c>
@@ -2110,31 +2104,27 @@
         <v>2</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="22"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="22"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>17</v>
       </c>
@@ -2144,14 +2134,12 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="22"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
         <v>18</v>
       </c>
@@ -2161,14 +2149,12 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="22"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>19</v>
       </c>
@@ -2179,13 +2165,11 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="22"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>20</v>
       </c>
@@ -2196,13 +2180,11 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="22"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
         <v>21</v>
       </c>
@@ -2213,13 +2195,11 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="22"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>22</v>
       </c>
@@ -2231,12 +2211,10 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="H17" s="2"/>
       <c r="I17" s="22"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
         <v>23</v>
       </c>
@@ -2248,12 +2226,10 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="H18" s="2"/>
       <c r="I18" s="22"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>24</v>
       </c>
@@ -2265,12 +2241,10 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="H19" s="2"/>
       <c r="I19" s="22"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>25</v>
       </c>
@@ -2282,12 +2256,10 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="H20" s="2"/>
       <c r="I20" s="22"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
         <v>26</v>
       </c>
@@ -2300,11 +2272,9 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="22" t="s">
-        <v>32</v>
-      </c>
+      <c r="I21" s="22"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
         <v>27</v>
       </c>
@@ -2317,11 +2287,9 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="22" t="s">
-        <v>32</v>
-      </c>
+      <c r="I22" s="22"/>
     </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="24" t="s">
         <v>28</v>
       </c>
@@ -2334,11 +2302,9 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="I23" s="25"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>4</v>
       </c>
@@ -2347,15 +2313,15 @@
         <v>41</v>
       </c>
       <c r="C24" s="9">
-        <f t="shared" ref="C24:I24" si="0">B$24-SUM(C3:C23)</f>
+        <f>B$24-SUM(C3:C23)</f>
         <v>41</v>
       </c>
       <c r="D24" s="9">
-        <f t="shared" si="0"/>
+        <f>C$24-SUM(D3:D23)</f>
         <v>41</v>
       </c>
       <c r="E24" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C24:I24" si="0">D$24-SUM(E3:E23)</f>
         <v>41</v>
       </c>
       <c r="F24" s="9">
@@ -2375,7 +2341,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>2</v>
       </c>
@@ -2388,7 +2354,7 @@
         <v>35.142857142857146</v>
       </c>
       <c r="D25" s="13">
-        <f t="shared" si="1"/>
+        <f>C$25-$B$25/COUNT($C$1:$I$1)</f>
         <v>29.285714285714288</v>
       </c>
       <c r="E25" s="13">
@@ -2404,7 +2370,7 @@
         <v>11.714285714285715</v>
       </c>
       <c r="H25" s="13">
-        <f t="shared" si="1"/>
+        <f>G$25-$B$25/COUNT($C$1:$I$1)</f>
         <v>5.8571428571428585</v>
       </c>
       <c r="I25" s="14">

--- a/Requirements and Planning/burndown_Bas-1.xlsx
+++ b/Requirements and Planning/burndown_Bas-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Project_Bas\Requirements and Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEC94D3-7E65-4D79-8C59-DC1684662513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA4BC70-8C0B-4DB0-A5A5-DDD6D5C20026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
@@ -83,48 +83,6 @@
     <t>Repository maken</t>
   </si>
   <si>
-    <t>US 1</t>
-  </si>
-  <si>
-    <t>US 2</t>
-  </si>
-  <si>
-    <t>US 3</t>
-  </si>
-  <si>
-    <t>US 4</t>
-  </si>
-  <si>
-    <t>US 5</t>
-  </si>
-  <si>
-    <t>US 6</t>
-  </si>
-  <si>
-    <t>US 7</t>
-  </si>
-  <si>
-    <t>US 8</t>
-  </si>
-  <si>
-    <t>US 9</t>
-  </si>
-  <si>
-    <t>US 10</t>
-  </si>
-  <si>
-    <t>US 11</t>
-  </si>
-  <si>
-    <t>US 12</t>
-  </si>
-  <si>
-    <t>US 13</t>
-  </si>
-  <si>
-    <t>US 14</t>
-  </si>
-  <si>
     <t>ERD</t>
   </si>
   <si>
@@ -138,6 +96,48 @@
   </si>
   <si>
     <t>Usecase diagram</t>
+  </si>
+  <si>
+    <t>Invetaris bekijken</t>
+  </si>
+  <si>
+    <t>artikelen bestellen</t>
+  </si>
+  <si>
+    <t>inkooporders beheren</t>
+  </si>
+  <si>
+    <t>klant beheren</t>
+  </si>
+  <si>
+    <t>artikelen toevoegen wijzigen verwijderen</t>
+  </si>
+  <si>
+    <t>orders beheren</t>
+  </si>
+  <si>
+    <t>leveranciers beheren</t>
+  </si>
+  <si>
+    <t>voorraad controleren</t>
+  </si>
+  <si>
+    <t>artikellocaties bekijken</t>
+  </si>
+  <si>
+    <t>orderstatus updaten</t>
+  </si>
+  <si>
+    <t>klant gegeven opzoeken</t>
+  </si>
+  <si>
+    <t>verkoopstatus updaten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klanten, leveranciers en producten verwijderen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verkooporder bijwerken </t>
   </si>
 </sst>
 </file>
@@ -615,28 +615,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>41</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -741,28 +741,28 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>41</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.142857142857146</c:v>
+                  <c:v>60.857142857142861</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.285714285714288</c:v>
+                  <c:v>50.714285714285722</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.428571428571431</c:v>
+                  <c:v>40.571428571428584</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.571428571428573</c:v>
+                  <c:v>30.428571428571441</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.714285714285715</c:v>
+                  <c:v>20.285714285714299</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.8571428571428585</c:v>
+                  <c:v>10.142857142857157</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.4210854715202004E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1917,12 +1917,12 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.33203125" customWidth="1"/>
     <col min="3" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1988,10 +1988,10 @@
         <v>12</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -2002,13 +2002,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2022,10 +2022,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2039,10 +2039,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2053,10 +2053,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -2068,7 +2068,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -2083,7 +2083,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -2113,9 +2113,11 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -2126,10 +2128,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2141,10 +2143,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -2156,10 +2158,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -2171,10 +2173,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2186,10 +2188,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2201,10 +2203,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -2216,10 +2218,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -2231,10 +2233,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -2246,7 +2248,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>
@@ -2261,10 +2263,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -2276,10 +2278,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -2291,10 +2293,10 @@
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="24" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -2310,35 +2312,35 @@
       </c>
       <c r="B24" s="8">
         <f>SUM(B3:B23)</f>
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="C24" s="9">
         <f>B$24-SUM(C3:C23)</f>
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D24" s="9">
         <f>C$24-SUM(D3:D23)</f>
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="E24" s="9">
-        <f t="shared" ref="C24:I24" si="0">D$24-SUM(E3:E23)</f>
-        <v>41</v>
+        <f t="shared" ref="E24:I24" si="0">D$24-SUM(E3:E23)</f>
+        <v>71</v>
       </c>
       <c r="F24" s="9">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="G24" s="9">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="H24" s="9">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="I24" s="10">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2347,35 +2349,35 @@
       </c>
       <c r="B25" s="12">
         <f>B24</f>
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="C25" s="13">
         <f t="shared" ref="C25:I25" si="1">B$25-$B$25/COUNT($C$1:$I$1)</f>
-        <v>35.142857142857146</v>
+        <v>60.857142857142861</v>
       </c>
       <c r="D25" s="13">
         <f>C$25-$B$25/COUNT($C$1:$I$1)</f>
-        <v>29.285714285714288</v>
+        <v>50.714285714285722</v>
       </c>
       <c r="E25" s="13">
         <f t="shared" si="1"/>
-        <v>23.428571428571431</v>
+        <v>40.571428571428584</v>
       </c>
       <c r="F25" s="13">
         <f t="shared" si="1"/>
-        <v>17.571428571428573</v>
+        <v>30.428571428571441</v>
       </c>
       <c r="G25" s="13">
         <f t="shared" si="1"/>
-        <v>11.714285714285715</v>
+        <v>20.285714285714299</v>
       </c>
       <c r="H25" s="13">
         <f>G$25-$B$25/COUNT($C$1:$I$1)</f>
-        <v>5.8571428571428585</v>
+        <v>10.142857142857157</v>
       </c>
       <c r="I25" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.4210854715202004E-14</v>
       </c>
     </row>
   </sheetData>

--- a/Requirements and Planning/burndown_Bas-1.xlsx
+++ b/Requirements and Planning/burndown_Bas-1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Project_Bas\Requirements and Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA4BC70-8C0B-4DB0-A5A5-DDD6D5C20026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91118E73-BDEA-47E0-9B23-7ACB89111904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>Taak</t>
   </si>
@@ -107,9 +107,6 @@
     <t>inkooporders beheren</t>
   </si>
   <si>
-    <t>klant beheren</t>
-  </si>
-  <si>
     <t>artikelen toevoegen wijzigen verwijderen</t>
   </si>
   <si>
@@ -138,6 +135,9 @@
   </si>
   <si>
     <t xml:space="preserve">Verkooporder bijwerken </t>
+  </si>
+  <si>
+    <t>klant toevoegen</t>
   </si>
 </sst>
 </file>
@@ -618,25 +618,25 @@
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>71</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>71</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>71</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>71</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>71</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>71</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1917,7 +1917,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1990,8 +1990,8 @@
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
+      <c r="C3" s="2">
+        <v>1</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -2007,8 +2007,8 @@
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
+      <c r="C4" s="2">
+        <v>1</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2024,8 +2024,8 @@
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
+      <c r="C5" s="2">
+        <v>1</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2041,8 +2041,8 @@
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
+      <c r="C6" s="2">
+        <v>1</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2059,7 +2059,9 @@
         <v>3</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -2074,7 +2076,9 @@
         <v>3</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>3</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -2089,7 +2093,9 @@
         <v>2</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -2104,7 +2110,9 @@
         <v>3</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -2120,7 +2128,9 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -2135,7 +2145,9 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -2143,14 +2155,16 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1">
         <v>6</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -2158,7 +2172,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1">
         <v>5</v>
@@ -2166,14 +2180,16 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="22"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1">
         <v>6</v>
@@ -2181,14 +2197,16 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="22"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="1">
         <v>5</v>
@@ -2197,13 +2215,15 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="I16" s="22"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="1">
         <v>3</v>
@@ -2212,13 +2232,15 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="H17" s="2"/>
       <c r="I17" s="22"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1">
         <v>3</v>
@@ -2227,13 +2249,15 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="H18" s="2"/>
       <c r="I18" s="22"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="1">
         <v>4</v>
@@ -2243,12 +2267,14 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="I19" s="22"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>
@@ -2258,12 +2284,14 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="I20" s="22"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="1">
         <v>3</v>
@@ -2273,12 +2301,16 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="22"/>
+      <c r="H21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="1">
         <v>5</v>
@@ -2289,11 +2321,13 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="22"/>
+      <c r="I22" s="22" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="5">
         <v>3</v>
@@ -2304,7 +2338,9 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="25"/>
+      <c r="I23" s="25" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
@@ -2316,31 +2352,31 @@
       </c>
       <c r="C24" s="9">
         <f>B$24-SUM(C3:C23)</f>
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D24" s="9">
         <f>C$24-SUM(D3:D23)</f>
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="E24" s="9">
         <f t="shared" ref="E24:I24" si="0">D$24-SUM(E3:E23)</f>
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F24" s="9">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="G24" s="9">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="H24" s="9">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="I24" s="10">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">

--- a/Requirements and Planning/burndown_Bas-1.xlsx
+++ b/Requirements and Planning/burndown_Bas-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Project_Bas\Requirements and Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91118E73-BDEA-47E0-9B23-7ACB89111904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1924EF-B6B2-46AC-9823-2F5B8BCFBDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>Taak</t>
   </si>
@@ -621,22 +621,22 @@
                   <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1917,7 +1917,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2178,11 +2178,11 @@
         <v>5</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2">
+        <v>5</v>
+      </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="22"/>
@@ -2214,10 +2214,10 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="22"/>
     </row>
@@ -2356,27 +2356,27 @@
       </c>
       <c r="D24" s="9">
         <f>C$24-SUM(D3:D23)</f>
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E24" s="9">
         <f t="shared" ref="E24:I24" si="0">D$24-SUM(E3:E23)</f>
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F24" s="9">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G24" s="9">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H24" s="9">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I24" s="10">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">

--- a/Requirements and Planning/burndown_Bas-1.xlsx
+++ b/Requirements and Planning/burndown_Bas-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Project_Bas\Requirements and Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1924EF-B6B2-46AC-9823-2F5B8BCFBDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6B9AB7-8F56-4CAD-B03D-23E1BCD5AB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>Taak</t>
   </si>
@@ -624,19 +624,19 @@
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1917,7 +1917,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2128,9 +2128,7 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -2145,9 +2143,7 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -2162,8 +2158,8 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>18</v>
+      <c r="E13" s="2">
+        <v>6</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2281,7 +2277,9 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2">
+        <v>2</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
@@ -2360,23 +2358,23 @@
       </c>
       <c r="E24" s="9">
         <f t="shared" ref="E24:I24" si="0">D$24-SUM(E3:E23)</f>
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F24" s="9">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G24" s="9">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H24" s="9">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I24" s="10">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
